--- a/金茂后台管理/数据导出模板.xlsx
+++ b/金茂后台管理/数据导出模板.xlsx
@@ -5,16 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lee/Desktop/金茂/导出数据模板/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lee/Documents/eventmosh-pm.github.io/金茂后台管理/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9640" yWindow="460" windowWidth="28160" windowHeight="15520" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="38140" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="订单" sheetId="1" r:id="rId1"/>
     <sheet name="财务明细" sheetId="2" r:id="rId2"/>
     <sheet name="退款列表" sheetId="3" r:id="rId3"/>
+    <sheet name="CRM" sheetId="4" r:id="rId4"/>
+    <sheet name="开票信息" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
   <si>
     <t>订单编号</t>
     <rPh sb="0" eb="1">
@@ -586,6 +588,159 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>zhuang'tai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昵称</t>
+    <rPh sb="0" eb="1">
+      <t>ni'cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+    <rPh sb="0" eb="1">
+      <t>shou'ji'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在地</t>
+    <rPh sb="0" eb="1">
+      <t>suo'zai'di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生日</t>
+    <rPh sb="0" eb="1">
+      <t>shegn'ri</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <rPh sb="0" eb="1">
+      <t>xing'bie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分</t>
+    <rPh sb="0" eb="1">
+      <t>ji'fen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册时间</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'ce</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开票单号</t>
+    <rPh sb="0" eb="1">
+      <t>kai'piao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dan'hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请时间</t>
+    <rPh sb="0" eb="1">
+      <t>shen'qing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请人</t>
+    <rPh sb="0" eb="1">
+      <t>shen'qing'ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请人手机号</t>
+    <rPh sb="0" eb="1">
+      <t>shen'q'r</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shou'ji'hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开票类型</t>
+    <rPh sb="0" eb="1">
+      <t>kai'piao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lei'xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开票总额</t>
+    <rPh sb="0" eb="1">
+      <t>kai'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zong'e</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抬头</t>
+    <rPh sb="0" eb="1">
+      <t>tai'tou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>税号</t>
+    <rPh sb="0" eb="1">
+      <t>shui'hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送邮箱</t>
+    <rPh sb="0" eb="1">
+      <t>fa's</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>you'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开票状态</t>
+    <rPh sb="0" eb="1">
+      <t>kai'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhuang'tai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注信息</t>
+    <rPh sb="0" eb="1">
+      <t>bei'hzu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xin'x</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -928,8 +1083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1170,7 +1325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -1219,4 +1374,94 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>